--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H2">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J2">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N2">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P2">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q2">
-        <v>31.881821548605</v>
+        <v>83.61755885149333</v>
       </c>
       <c r="R2">
-        <v>286.936393937445</v>
+        <v>752.5580296634398</v>
       </c>
       <c r="S2">
-        <v>0.001555785232613341</v>
+        <v>0.003420967282912077</v>
       </c>
       <c r="T2">
-        <v>0.001555785232613341</v>
+        <v>0.003420967282912077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H3">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J3">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P3">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q3">
-        <v>148.233352752735</v>
+        <v>303.5562211718703</v>
       </c>
       <c r="R3">
-        <v>1334.100174774615</v>
+        <v>2732.005990546832</v>
       </c>
       <c r="S3">
-        <v>0.007233566025764296</v>
+        <v>0.01241911286835952</v>
       </c>
       <c r="T3">
-        <v>0.007233566025764297</v>
+        <v>0.01241911286835952</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H4">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J4">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N4">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O4">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P4">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q4">
-        <v>317.3571270858899</v>
+        <v>602.1793839805075</v>
       </c>
       <c r="R4">
-        <v>2856.21414377301</v>
+        <v>5419.614455824568</v>
       </c>
       <c r="S4">
-        <v>0.01548655339633273</v>
+        <v>0.02463640411579266</v>
       </c>
       <c r="T4">
-        <v>0.01548655339633274</v>
+        <v>0.02463640411579266</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H5">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J5">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N5">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P5">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q5">
-        <v>47.956449204675</v>
+        <v>64.932613030285</v>
       </c>
       <c r="R5">
-        <v>431.608042842075</v>
+        <v>584.393517272565</v>
       </c>
       <c r="S5">
-        <v>0.002340203032861833</v>
+        <v>0.002656527502376712</v>
       </c>
       <c r="T5">
-        <v>0.002340203032861833</v>
+        <v>0.002656527502376713</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H6">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J6">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N6">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P6">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q6">
-        <v>64.27688566089</v>
+        <v>134.5717104034637</v>
       </c>
       <c r="R6">
-        <v>578.49197094801</v>
+        <v>1211.145393631173</v>
       </c>
       <c r="S6">
-        <v>0.003136615935106896</v>
+        <v>0.005505607013873573</v>
       </c>
       <c r="T6">
-        <v>0.003136615935106896</v>
+        <v>0.005505607013873572</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.312015</v>
+        <v>12.925913</v>
       </c>
       <c r="H7">
-        <v>18.936045</v>
+        <v>38.777739</v>
       </c>
       <c r="I7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781901</v>
       </c>
       <c r="J7">
-        <v>0.04648952252977664</v>
+        <v>0.08058655762781902</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N7">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P7">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q7">
-        <v>342.97769696313</v>
+        <v>780.8927813656969</v>
       </c>
       <c r="R7">
-        <v>3086.79927266817</v>
+        <v>7028.035032291272</v>
       </c>
       <c r="S7">
-        <v>0.01673679890709754</v>
+        <v>0.03194793884450448</v>
       </c>
       <c r="T7">
-        <v>0.01673679890709755</v>
+        <v>0.03194793884450447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>130.276527</v>
       </c>
       <c r="I8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J8">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N8">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P8">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q8">
-        <v>219.3411024205963</v>
+        <v>280.9190387142133</v>
       </c>
       <c r="R8">
-        <v>1974.069921785367</v>
+        <v>2528.271348427919</v>
       </c>
       <c r="S8">
-        <v>0.01070351791320485</v>
+        <v>0.0114929789124222</v>
       </c>
       <c r="T8">
-        <v>0.01070351791320485</v>
+        <v>0.01149297891242219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>130.276527</v>
       </c>
       <c r="I9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J9">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P9">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q9">
         <v>1019.818361341674</v>
@@ -1013,10 +1013,10 @@
         <v>9178.365252075067</v>
       </c>
       <c r="S9">
-        <v>0.04976561154463695</v>
+        <v>0.04172287850281541</v>
       </c>
       <c r="T9">
-        <v>0.04976561154463697</v>
+        <v>0.04172287850281541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>130.276527</v>
       </c>
       <c r="I10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J10">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N10">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O10">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P10">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q10">
-        <v>2183.359003184</v>
+        <v>2023.063768003079</v>
       </c>
       <c r="R10">
-        <v>19650.231028656</v>
+        <v>18207.57391202771</v>
       </c>
       <c r="S10">
-        <v>0.106544655532572</v>
+        <v>0.08276772315100614</v>
       </c>
       <c r="T10">
-        <v>0.106544655532572</v>
+        <v>0.08276772315100614</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>130.276527</v>
       </c>
       <c r="I11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J11">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N11">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P11">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q11">
-        <v>329.931601326305</v>
+        <v>218.145656058505</v>
       </c>
       <c r="R11">
-        <v>2969.384411936745</v>
+        <v>1963.310904526545</v>
       </c>
       <c r="S11">
-        <v>0.01610016894214744</v>
+        <v>0.008924789990711484</v>
       </c>
       <c r="T11">
-        <v>0.01610016894214745</v>
+        <v>0.008924789990711484</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>130.276527</v>
       </c>
       <c r="I12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J12">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N12">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P12">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q12">
-        <v>442.2132198290006</v>
+        <v>452.1030755251877</v>
       </c>
       <c r="R12">
-        <v>3979.918978461006</v>
+        <v>4068.927679726689</v>
       </c>
       <c r="S12">
-        <v>0.02157934407943072</v>
+        <v>0.01849647192669717</v>
       </c>
       <c r="T12">
-        <v>0.02157934407943072</v>
+        <v>0.01849647192669717</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>130.276527</v>
       </c>
       <c r="I13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="J13">
-        <v>0.3198394140417154</v>
+        <v>0.2707361780592112</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N13">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P13">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q13">
-        <v>2359.623839023144</v>
+        <v>2623.463929026221</v>
       </c>
       <c r="R13">
-        <v>21236.6145512083</v>
+        <v>23611.17536123599</v>
       </c>
       <c r="S13">
-        <v>0.1151461160297234</v>
+        <v>0.1073313355755589</v>
       </c>
       <c r="T13">
-        <v>0.1151461160297234</v>
+        <v>0.1073313355755588</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H14">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J14">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N14">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P14">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q14">
-        <v>159.0497663234573</v>
+        <v>255.0076570949155</v>
       </c>
       <c r="R14">
-        <v>1431.447896911116</v>
+        <v>2295.06891385424</v>
       </c>
       <c r="S14">
-        <v>0.007761390838958031</v>
+        <v>0.01043289069659546</v>
       </c>
       <c r="T14">
-        <v>0.007761390838958031</v>
+        <v>0.01043289069659546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H15">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J15">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P15">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q15">
-        <v>739.4960190942013</v>
+        <v>925.7524594218908</v>
       </c>
       <c r="R15">
-        <v>6655.464171847811</v>
+        <v>8331.772134797018</v>
       </c>
       <c r="S15">
-        <v>0.03608630028648573</v>
+        <v>0.03787444789415925</v>
       </c>
       <c r="T15">
-        <v>0.03608630028648573</v>
+        <v>0.03787444789415925</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H16">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J16">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N16">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O16">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P16">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q16">
-        <v>1583.208689225699</v>
+        <v>1836.460618665697</v>
       </c>
       <c r="R16">
-        <v>14248.87820303129</v>
+        <v>16528.14556799127</v>
       </c>
       <c r="S16">
-        <v>0.0772582173539655</v>
+        <v>0.07513340235116923</v>
       </c>
       <c r="T16">
-        <v>0.07725821735396551</v>
+        <v>0.07513340235116925</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H17">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J17">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N17">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P17">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q17">
-        <v>239.24172676514</v>
+        <v>198.0243593012767</v>
       </c>
       <c r="R17">
-        <v>2153.17554088626</v>
+        <v>1782.21923371149</v>
       </c>
       <c r="S17">
-        <v>0.01167463863250959</v>
+        <v>0.008101586122508464</v>
       </c>
       <c r="T17">
-        <v>0.01167463863250959</v>
+        <v>0.008101586122508466</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H18">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J18">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N18">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P18">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q18">
-        <v>320.6599606856987</v>
+        <v>410.4020381914065</v>
       </c>
       <c r="R18">
-        <v>2885.939646171288</v>
+        <v>3693.618343722658</v>
       </c>
       <c r="S18">
-        <v>0.01564772673871933</v>
+        <v>0.01679039623707169</v>
       </c>
       <c r="T18">
-        <v>0.01564772673871933</v>
+        <v>0.01679039623707169</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.488932</v>
+        <v>39.42003133333333</v>
       </c>
       <c r="H19">
-        <v>94.466796</v>
+        <v>118.260094</v>
       </c>
       <c r="I19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="J19">
-        <v>0.2319236271860261</v>
+        <v>0.2457640421016371</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N19">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P19">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q19">
-        <v>1711.022768036611</v>
+        <v>2381.481130919695</v>
       </c>
       <c r="R19">
-        <v>15399.20491232949</v>
+        <v>21433.33017827726</v>
       </c>
       <c r="S19">
-        <v>0.08349535333538796</v>
+        <v>0.097431318800133</v>
       </c>
       <c r="T19">
-        <v>0.08349535333538798</v>
+        <v>0.097431318800133</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H20">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J20">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N20">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P20">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q20">
-        <v>57.00323810669132</v>
+        <v>57.96533993236444</v>
       </c>
       <c r="R20">
-        <v>513.0291429602219</v>
+        <v>521.6880593912799</v>
       </c>
       <c r="S20">
-        <v>0.00278167280756933</v>
+        <v>0.002371481949188167</v>
       </c>
       <c r="T20">
-        <v>0.00278167280756933</v>
+        <v>0.002371481949188167</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H21">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J21">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P21">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q21">
-        <v>265.0344519818393</v>
+        <v>210.4311557344301</v>
       </c>
       <c r="R21">
-        <v>2385.310067836554</v>
+        <v>1893.880401609871</v>
       </c>
       <c r="S21">
-        <v>0.01293328506649135</v>
+        <v>0.00860917382617425</v>
       </c>
       <c r="T21">
-        <v>0.01293328506649135</v>
+        <v>0.008609173826174252</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H22">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J22">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N22">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O22">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P22">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q22">
-        <v>567.4200218627105</v>
+        <v>417.4426181788558</v>
       </c>
       <c r="R22">
-        <v>5106.780196764395</v>
+        <v>3756.983563609702</v>
       </c>
       <c r="S22">
-        <v>0.02768924885164758</v>
+        <v>0.01707844092673509</v>
       </c>
       <c r="T22">
-        <v>0.02768924885164759</v>
+        <v>0.0170784409267351</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H23">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J23">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N23">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P23">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q23">
-        <v>85.74393682612998</v>
+        <v>45.01256720112833</v>
       </c>
       <c r="R23">
-        <v>771.6954314351699</v>
+        <v>405.113104810155</v>
       </c>
       <c r="S23">
-        <v>0.004184175941667962</v>
+        <v>0.001841557225898268</v>
       </c>
       <c r="T23">
-        <v>0.004184175941667962</v>
+        <v>0.001841557225898269</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H24">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J24">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N24">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P24">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q24">
-        <v>114.9241304327107</v>
+        <v>93.28776211549456</v>
       </c>
       <c r="R24">
-        <v>1034.317173894396</v>
+        <v>839.589859039451</v>
       </c>
       <c r="S24">
-        <v>0.005608125769274434</v>
+        <v>0.003816595299797994</v>
       </c>
       <c r="T24">
-        <v>0.005608125769274434</v>
+        <v>0.003816595299797994</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.285594</v>
+        <v>8.960497666666667</v>
       </c>
       <c r="H25">
-        <v>33.856782</v>
+        <v>26.881493</v>
       </c>
       <c r="I25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183146</v>
       </c>
       <c r="J25">
-        <v>0.08312113905383813</v>
+        <v>0.05586419014183147</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N25">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P25">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q25">
-        <v>613.2284284782145</v>
+        <v>541.3302677609056</v>
       </c>
       <c r="R25">
-        <v>5519.05585630393</v>
+        <v>4871.97240984815</v>
       </c>
       <c r="S25">
-        <v>0.02992463061718747</v>
+        <v>0.0221469409140377</v>
       </c>
       <c r="T25">
-        <v>0.02992463061718747</v>
+        <v>0.02214694091403769</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H26">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J26">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N26">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P26">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q26">
-        <v>73.63959639943356</v>
+        <v>96.35898927559111</v>
       </c>
       <c r="R26">
-        <v>662.7563675949019</v>
+        <v>867.23090348032</v>
       </c>
       <c r="S26">
-        <v>0.003593502223177026</v>
+        <v>0.003942245555287289</v>
       </c>
       <c r="T26">
-        <v>0.003593502223177026</v>
+        <v>0.003942245555287289</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H27">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J27">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P27">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q27">
-        <v>342.3845859310348</v>
+        <v>349.8113441985138</v>
       </c>
       <c r="R27">
-        <v>3081.461273379314</v>
+        <v>3148.302097786624</v>
       </c>
       <c r="S27">
-        <v>0.0167078559753511</v>
+        <v>0.01431150562311876</v>
       </c>
       <c r="T27">
-        <v>0.0167078559753511</v>
+        <v>0.01431150562311877</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H28">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J28">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N28">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O28">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P28">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q28">
-        <v>733.0211894405151</v>
+        <v>693.9379431778701</v>
       </c>
       <c r="R28">
-        <v>6597.190704964636</v>
+        <v>6245.441488600832</v>
       </c>
       <c r="S28">
-        <v>0.03577033827836977</v>
+        <v>0.02839043656128449</v>
       </c>
       <c r="T28">
-        <v>0.03577033827836978</v>
+        <v>0.02839043656128449</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H29">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J29">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N29">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P29">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q29">
-        <v>110.7682495116633</v>
+        <v>74.82687904981333</v>
       </c>
       <c r="R29">
-        <v>996.91424560497</v>
+        <v>673.4419114483201</v>
       </c>
       <c r="S29">
-        <v>0.005405324992800361</v>
+        <v>0.003061322390031229</v>
       </c>
       <c r="T29">
-        <v>0.005405324992800361</v>
+        <v>0.00306132239003123</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H30">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J30">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N30">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P30">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q30">
-        <v>148.4646638105151</v>
+        <v>155.0774045269049</v>
       </c>
       <c r="R30">
-        <v>1336.181974294636</v>
+        <v>1395.696640742144</v>
       </c>
       <c r="S30">
-        <v>0.007244853659605603</v>
+        <v>0.006344537373396286</v>
       </c>
       <c r="T30">
-        <v>0.007244853659605603</v>
+        <v>0.006344537373396286</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.57928733333333</v>
+        <v>14.89553066666667</v>
       </c>
       <c r="H31">
-        <v>43.737862</v>
+        <v>44.686592</v>
       </c>
       <c r="I31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337974</v>
       </c>
       <c r="J31">
-        <v>0.1073799899003864</v>
+        <v>0.09286613181337976</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N31">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P31">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q31">
-        <v>792.1987499951124</v>
+        <v>899.8832324038826</v>
       </c>
       <c r="R31">
-        <v>7129.788749956011</v>
+        <v>8098.949091634944</v>
       </c>
       <c r="S31">
-        <v>0.03865811477108251</v>
+        <v>0.0368160843102617</v>
       </c>
       <c r="T31">
-        <v>0.03865811477108252</v>
+        <v>0.03681608431026169</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H32">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I32">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J32">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.050973666666667</v>
+        <v>6.468986666666666</v>
       </c>
       <c r="N32">
-        <v>15.152921</v>
+        <v>19.40696</v>
       </c>
       <c r="O32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636807</v>
       </c>
       <c r="P32">
-        <v>0.03346528740141087</v>
+        <v>0.04245084271636806</v>
       </c>
       <c r="Q32">
-        <v>144.8695685668156</v>
+        <v>263.7431632130222</v>
       </c>
       <c r="R32">
-        <v>1303.82611710134</v>
+        <v>2373.6884689172</v>
       </c>
       <c r="S32">
-        <v>0.007069418385888284</v>
+        <v>0.01079027831996288</v>
       </c>
       <c r="T32">
-        <v>0.007069418385888285</v>
+        <v>0.01079027831996288</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H33">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I33">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J33">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>70.45294699999999</v>
       </c>
       <c r="O33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="P33">
-        <v>0.1555956188005842</v>
+        <v>0.1541089883217988</v>
       </c>
       <c r="Q33">
-        <v>673.5657129177088</v>
+        <v>957.4649043157406</v>
       </c>
       <c r="R33">
-        <v>6062.091416259379</v>
+        <v>8617.184138841665</v>
       </c>
       <c r="S33">
-        <v>0.03286899990185474</v>
+        <v>0.03917186960717156</v>
       </c>
       <c r="T33">
-        <v>0.03286899990185475</v>
+        <v>0.03917186960717156</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H34">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I34">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J34">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>50.27825933333333</v>
+        <v>46.58699033333333</v>
       </c>
       <c r="N34">
-        <v>150.834778</v>
+        <v>139.760971</v>
       </c>
       <c r="O34">
-        <v>0.3331192181294949</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="P34">
-        <v>0.333119218129495</v>
+        <v>0.3057135686273316</v>
       </c>
       <c r="Q34">
-        <v>1442.056565445791</v>
+        <v>1899.370153041149</v>
       </c>
       <c r="R34">
-        <v>12978.50908901212</v>
+        <v>17094.33137737034</v>
       </c>
       <c r="S34">
-        <v>0.07037020471660728</v>
+        <v>0.07770716152134396</v>
       </c>
       <c r="T34">
-        <v>0.07037020471660729</v>
+        <v>0.07770716152134396</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H35">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I35">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J35">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.597645</v>
+        <v>5.023445</v>
       </c>
       <c r="N35">
-        <v>22.792935</v>
+        <v>15.070335</v>
       </c>
       <c r="O35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="P35">
-        <v>0.05033828926427299</v>
+        <v>0.03296489613870368</v>
       </c>
       <c r="Q35">
-        <v>217.9119563694333</v>
+        <v>204.8078536555917</v>
       </c>
       <c r="R35">
-        <v>1961.2076073249</v>
+        <v>1843.270682900325</v>
       </c>
       <c r="S35">
-        <v>0.01063377772228579</v>
+        <v>0.00837911290717752</v>
       </c>
       <c r="T35">
-        <v>0.01063377772228579</v>
+        <v>0.00837911290717752</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H36">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I36">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J36">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>10.18325933333333</v>
+        <v>10.41100233333333</v>
       </c>
       <c r="N36">
-        <v>30.549778</v>
+        <v>31.233007</v>
       </c>
       <c r="O36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899644</v>
       </c>
       <c r="P36">
-        <v>0.06746930844682017</v>
+        <v>0.06831917351899643</v>
       </c>
       <c r="Q36">
-        <v>292.0712883457911</v>
+        <v>424.4607121792629</v>
       </c>
       <c r="R36">
-        <v>2628.64159511212</v>
+        <v>3820.146409613365</v>
       </c>
       <c r="S36">
-        <v>0.01425264226468318</v>
+        <v>0.01736556566815972</v>
       </c>
       <c r="T36">
-        <v>0.01425264226468319</v>
+        <v>0.01736556566815972</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>28.68151333333333</v>
+        <v>40.77039833333334</v>
       </c>
       <c r="H37">
-        <v>86.04454</v>
+        <v>122.311195</v>
       </c>
       <c r="I37">
-        <v>0.2112463072882572</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="J37">
-        <v>0.2112463072882573</v>
+        <v>0.2541829002561214</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>54.33727533333333</v>
+        <v>60.412969</v>
       </c>
       <c r="N37">
-        <v>163.011826</v>
+        <v>181.238907</v>
       </c>
       <c r="O37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768016</v>
       </c>
       <c r="P37">
-        <v>0.3600122779574169</v>
+        <v>0.3964425306768015</v>
       </c>
       <c r="Q37">
-        <v>1558.475286970004</v>
+        <v>2463.060810629318</v>
       </c>
       <c r="R37">
-        <v>14026.27758273004</v>
+        <v>22167.54729566387</v>
       </c>
       <c r="S37">
-        <v>0.07605126429693797</v>
+        <v>0.1007689122323058</v>
       </c>
       <c r="T37">
-        <v>0.07605126429693798</v>
+        <v>0.1007689122323058</v>
       </c>
     </row>
   </sheetData>
